--- a/medicine/Enfance/DoAdo/DoAdo.xlsx
+++ b/medicine/Enfance/DoAdo/DoAdo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">DoAdo est une collection de romans pour les adolescent(e)s des éditions du Rouergue.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection naît d'abord sans titre quand les éditions du Rouergue publient les premiers romans de Guillaume Guéraud à partir de 1998-1999. La collection ne prend son nom qu'en 2001 (d'abord sous la forme Do a do)[1]. La collection publie depuis les textes de nouveaux auteurs destinés à un lectorat adolescent.
-Il existe les sous-collections DoAdo Monde, DoAdo Noir et DoAdao Image[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection naît d'abord sans titre quand les éditions du Rouergue publient les premiers romans de Guillaume Guéraud à partir de 1998-1999. La collection ne prend son nom qu'en 2001 (d'abord sous la forme Do a do). La collection publie depuis les textes de nouveaux auteurs destinés à un lectorat adolescent.
+Il existe les sous-collections DoAdo Monde, DoAdo Noir et DoAdao Image.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Florence Aubry, Le Garçon talisman (DoAdo noir)
 André Benchetrit, Vendeur de cauchemars (DoAdo noir)
@@ -551,7 +567,7 @@
 Rachel Corenblit, Shalom salam maintenant (DoAdo monde)
 Alex Cousseau, Sanguine
 Sylvie Deshors, Douce nuit, minus ! (DoAdo noir)
-Benjamin Desmares, Des poings dans le ventre (DoAdo noir) - Pépite 2017 du Salon du livre et de la presse jeunesse de Montreuil, catégorie Roman[3]
+Benjamin Desmares, Des poings dans le ventre (DoAdo noir) - Pépite 2017 du Salon du livre et de la presse jeunesse de Montreuil, catégorie Roman
 Bertrand Ferrier, Happy End
 Élise Fontenaille, Chasseur d'orages
 Guillaume Guéraud, Chassé-croisé
